--- a/input/open_data_datasets_for_fair_assessment_2020.xlsx
+++ b/input/open_data_datasets_for_fair_assessment_2020.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="2043" documentId="13_ncr:1_{A6363B66-EF64-4594-85DE-7C8E21BC35D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{806823C6-AA6A-3B4D-9C27-7BB5FAE9B3C8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{6F78DAF4-323A-46F9-9E6A-62895BA4FFC0}"/>
+    <workbookView xWindow="1060" yWindow="760" windowWidth="28800" windowHeight="17500" xr2:uid="{6F78DAF4-323A-46F9-9E6A-62895BA4FFC0}"/>
   </bookViews>
   <sheets>
     <sheet name="OD 2d round" sheetId="1" r:id="rId1"/>
@@ -4712,8 +4712,8 @@
   <dimension ref="A1:K356"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A290" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A309" sqref="A309:XFD309"/>
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
